--- a/raw-data/HALO/Deconvolution_HALO_Analysis.xlsx
+++ b/raw-data/HALO/Deconvolution_HALO_Analysis.xlsx
@@ -11,8 +11,86 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A7">
+      <text>
+        <t xml:space="preserve">ROWS 7 ONWARD: All of these sections will most likely need to be revisited, and FINAL algorithms adjusted. Do run analysis with Louise with the current analysis first. She will be able to alert us to sections that have decrease/increased cell types. AKT3 copy intensity will not change as long as the settings for AKT3 are not adjusted, so no need for another pre-analysis and re-average
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B1">
+      <text>
+        <t xml:space="preserve">Color coded visual showing which sections belong to which slide. Number listed here is referring to which slide from in the series (1-8, or 1-5 for break out slides). A,B,C,D denotes which tissue section it is. A= section 1, closest to the label.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="N1">
+      <text>
+        <t xml:space="preserve">Neural plasticity file path to the raw image file. In/near the same location the fused HALO image and unmixed inform tiles can be found. The raw image in the QPTIFF in the Scan1 folder for each. The HALO and Inform information will be labeled REDO_HALO or REDO_Inform for rounds 2,3,4 and just HALO or Inform for rounds 1 and 5. REDO does not apply to the raw image EVER.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="M1">
+      <text>
+        <t xml:space="preserve">Path on Neural plasticity server to the "Final" .csv file for that section.
+	-Kelsey Montgomery
+All current files can be found here: Sophia --&gt; Deconvolution --&gt; Round2_ExportedFiles_091522 -&gt; then navigate to whichever folder responds to the combination and brain number.
+	-Sophia Cinquemani</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="L1">
+      <text>
+        <t xml:space="preserve">Algorithm made and used in HALO for the "final" analysis
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="K1">
+      <text>
+        <t xml:space="preserve">Path on Neurolucida computer to the unmixed, fused image. This is not relevant for the computational side, only for the person that will be adjusting the HALO segmentation algorithms and rerunning that HALO analysis. Rounds 1 and 2 had to be redone, this is where RERUN comes from. Reunmix will only be seen in rounds 2,3, and 4; this is because the original unmixing done in inform was done incorrectly.  RESCAN comes from when the initial polaris scan was blurry for that section. This section was rescanned. Always use a RERUN, Reunmix, or RESCAN file if it exists.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="J1">
+      <text>
+        <t xml:space="preserve">Average Copy Intensity for the sections within a round. This is the copy intensity average used in the "Final" algorithms.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E1">
+      <text>
+        <t xml:space="preserve">Average Copy intensity  for AKT3 for each section. This comes from the preanalysis algorithm.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D1">
+      <text>
+        <t xml:space="preserve">Either Star or Circle. Star=SLC17A7 (Opal 520), TMEM119 (Alexa 555), AKT3 (Opal 620), OLIG2 (Alexa 647). Circle=CLDN5 (Alexa 488), GAD1 (Opal 690), GFAP (Alexa 594), AKT3 (Opal 570). Colors in HALO are not consistent! Each channel can be pseudo colored any color later on.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C1">
+      <text>
+        <t xml:space="preserve">Refers to which round the section comes from. These rounds are the same as the snRNAseq rounds. You can see those rounds on the Deconvolution Plan google doc.
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">Refers to Brain number (4 digits) and area of DLPFC (Anterior=A, Middle=M, and Posterior=P)
+	-Kelsey Montgomery</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="261">
   <si>
     <r>
       <rPr>
@@ -159,7 +237,7 @@
         <b val="0"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> = Average Copy intensity  for AKT3 for each section. This comes from the preanalysis algorithm.</t>
+      <t xml:space="preserve"> = Average Copy intensity  for AKT3 for each section. This comes from the preanalysis algorithm. These values are from the initial analysis, not the current analysis.</t>
     </r>
   </si>
   <si>
@@ -169,15 +247,22 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>Column G</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> = Average Copy Intensity for the sections within a round. This is the copy intensity average used in the "Final" algorithms.</t>
-    </r>
+      <t xml:space="preserve">Column G= </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Exclusion of section from analysis. </t>
+    </r>
+  </si>
+  <si>
+    <t>Column H = if refined annotations and analysis were made in HALO</t>
+  </si>
+  <si>
+    <t>Coulmn I = confidence in overall quality of tissue, morphology, segmentation, and annotation</t>
   </si>
   <si>
     <r>
@@ -186,7 +271,24 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>Column H</t>
+      <t>Column J</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = Average Copy Intensity for the sections within a round. This is the copy intensity average used in the "Final" algorithms. These are values from initial analysis, these values are not reflective of current analysis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Column K</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +358,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>Column I</t>
+      <t>Column L</t>
     </r>
     <r>
       <rPr>
@@ -273,7 +375,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">Column J </t>
+      <t xml:space="preserve">Column M </t>
     </r>
     <r>
       <rPr>
@@ -290,14 +392,14 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>Column K</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> = Neural plasticity file path to the raw image file. In/near the same location the fused HALO image and unmixed inform tiles can be found. The raw image in the QPTIFF in the Scan1 folder for each. The HALO and Inform information will be labeled REDO_HALO or REDO_Inform for rounds 2,3,4 and just HALO or Inform for rounds 1 and 5. REDO does not apply to the raw image EVER.</t>
+      <t>Column N</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>= Neural plasticity file path to the raw image file. In/near the same location the fused HALO image and unmixed inform tiles can be found. The raw image in the QPTIFF in the Scan1 folder for each. The HALO and Inform information will be labeled REDO_HALO or REDO_Inform for rounds 2,3,4 and just HALO or Inform for rounds 1 and 5. REDO does not apply to the raw image EVER.</t>
     </r>
   </si>
   <si>
@@ -307,6 +409,103 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t>Column O</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = Notes which folder to use.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Column P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = Path to the RNAScope raw image on the Neural Plasticity server.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Column Q</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = JHPCE (and thus Globus) file path. Allsection images contain 4 sections (listed in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>columns P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">). The order of the sections is denoted by letters A-D, read in a top to bottom fashion. Where the top section is ""A"", the section below is ""B"", below that section is ""C"", and the final/bottom section is ""D.""
+These letters can be found in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>column B</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>. The slide number in this case does not matter."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>Notes:</t>
     </r>
     <r>
@@ -330,13 +529,22 @@
     <t>Combination</t>
   </si>
   <si>
-    <t>Average Copy Intensity for AKT3</t>
+    <t>Average Copy Intensity for AKT3 from initial analysis</t>
   </si>
   <si>
     <t>Comments/Issues</t>
   </si>
   <si>
-    <t>Average AKT3 Copy Intensity</t>
+    <t>Excluded</t>
+  </si>
+  <si>
+    <t>Re HALO completed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence in overall quality </t>
+  </si>
+  <si>
+    <t>Average AKT3 Copy Intensity from initial analysis</t>
   </si>
   <si>
     <t>HALO Folder Path (on Neurolucida)</t>
@@ -351,6 +559,12 @@
     <t>File Path to Raw Image</t>
   </si>
   <si>
+    <t>Path to Fused/Stitched Images</t>
+  </si>
+  <si>
+    <t>JHPCE_path (Accesible through Globus at https://research.libd.org/globus/jhpce_humanDeconvolutionRNAScope/index.html, then under the "raw_images_to_share" directory).</t>
+  </si>
+  <si>
     <t>6432A</t>
   </si>
   <si>
@@ -363,10 +577,13 @@
     <t>High Oligo/low SLC</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\STAR\RESCAN_Decon_RIF_6432A_B1R1_AKT3_Star</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_MidOLIG_FINAL_R1</t>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_MidOLIG_FINAL_R1_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R1_HA_Final_Analysis\HA_R1_6432A_Star_Final.csv</t>
@@ -375,54 +592,90 @@
     <t>Z:\Kelsey\Polaris\3422_DECON_RIF_STAR_B1R1S2\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\3422_DECON_RIF_STAR_B1R1S2\HALO/HALO_RESCAN_6432A_Star_AKT3_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_RESCAN_6432A_Star_AKT3_Fused.tif</t>
+  </si>
+  <si>
     <t>2720M</t>
   </si>
   <si>
     <t>6, A</t>
   </si>
   <si>
-    <t>Tiny tissue section with lots of folds</t>
+    <t>Tiny tissue section with lots of folds, tons of oligos</t>
   </si>
   <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\STAR\DECON_RIF_2720_Mid_B1_R1_RERUN_Star</t>
   </si>
   <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_MidOLIG_FINAL_R1_SMC3</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R1_HA_Final_Analysis\HA_R1_2720M_Star_Final.csv</t>
   </si>
   <si>
     <t>Z:\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_STAR\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_STAR\Scan1\HALO\Fused_HALO_section1_Br2720_Mid_Star</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section1_Br2720_Mid_Star.tif</t>
+  </si>
+  <si>
     <t>6432P</t>
   </si>
   <si>
     <t>6, B</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\STAR\DECON_RIF_6432_Post_B1_R1_RERUN_Star</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_LowOLIG_FINAL_R1</t>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_LowOLIG_FINAL_R1_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R1_HA_Final_Analysis\HA_R1_6432P_Star_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_STAR\Scan1\HALO\Fused_HALO_section2_Br6432_Post_Star</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section2_Br6432_Post_Star.tif</t>
+  </si>
+  <si>
     <t>6471A</t>
   </si>
   <si>
     <t>6, C</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\STAR\DECON_RIF_6471_Ant_B1_R1_RERUN_Star</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_LowOLIGFINAL_R1</t>
-  </si>
-  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R1_HA_Final_Analysis\HA_R1_6471A_Star_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_STAR\Scan1\HALO\Fused_HALO_section3_Br6471_Ant_Star</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section3_Br6471_Ant_Star.tif</t>
+  </si>
+  <si>
     <t>6432M</t>
   </si>
   <si>
@@ -444,6 +697,12 @@
     <t>Z:\Kelsey\Polaris\3422_DECON_RIF_STAR_BOR1S2\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\3422_DECON_RIF_STAR_BOR1S2\HALO\HALO_RESCAN_6432M_B1R1_BO_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_RESCAN_6432M_B1R1_BO_Fused.tif</t>
+  </si>
+  <si>
     <t>8325A</t>
   </si>
   <si>
@@ -453,7 +712,7 @@
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Star\Decon_RIF_B1_R5_Star_Br8325A_section1</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R5</t>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R5_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R5_HA_Final_Analysis\HA_R5_8325A_Star_Final.csv</t>
@@ -462,18 +721,36 @@
     <t>Z:\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Star</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Star\HALO_section1_Br8325A\HALO_B1_R5_Star_Br8325A_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Star_Br8325A_Fused.tif</t>
+  </si>
+  <si>
     <t>8325M</t>
   </si>
   <si>
     <t>7,B</t>
   </si>
   <si>
+    <t>big tear in this section</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Star\Decon_RIF_B1_R5_Star_Br8325M_section2</t>
   </si>
   <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R5_SMC3</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R5_HA_Final_Analysis\HA_R5_8325M_Star_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Star\HALO_section2_Br8325M\HALO_B1_R5_Star_Br8325M_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Star_Br8325M_Fused.tif</t>
+  </si>
+  <si>
     <t>8667A</t>
   </si>
   <si>
@@ -483,9 +760,18 @@
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Star\Decon_RIF_B1_R5_Star_Br8667A_section3</t>
   </si>
   <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R5_editedbySMC_080322</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R5_HA_Final_Analysis\HA_R5_8667A_Star_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Star\HALO_section3_Br8667A\HALO_B1_R5_Star_Br8667A_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Star_Br8667A_Fused.tif</t>
+  </si>
+  <si>
     <t>6522M</t>
   </si>
   <si>
@@ -498,7 +784,7 @@
     <t>KDM\DECON_RIF_Batch1_Round2_AKT3_RERUN\Reunmix_RIF_batch1_Round2_AKT3\Star</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R2</t>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R2_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R2_HA_Final_Analysis\HA_R2_6522M_Star_Final.csv</t>
@@ -510,6 +796,12 @@
     <t>USED REDO FOLDERS</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B1_R2_Rerun_Star\REDO_HALO\HALO_allsections_round2_AKT3_Star_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_allsections_round2_AKT3_Star_Fused.tif</t>
+  </si>
+  <si>
     <t>6522P</t>
   </si>
   <si>
@@ -519,6 +811,9 @@
     <t>section2, annotation3</t>
   </si>
   <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R2_SMC3</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R2_HA_Final_Analysis\HA_R2_6522P_Star_Final.csv</t>
   </si>
   <si>
@@ -543,6 +838,12 @@
     <t>section4, annotation1</t>
   </si>
   <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R2_SMC4</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R2_HA_Final_Analysis\HA_R2_8492P_Star_Final.csv</t>
   </si>
   <si>
@@ -552,30 +853,39 @@
     <t>KDM\DECON_RIF_Batch2_Round3_AKT3\Reunmix_RIF_Batch2_Round3_AKT3\Star</t>
   </si>
   <si>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R3_SMC2</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R3_HA_Final_Analysis\HA_R3_2723A_Star_Final.csv</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B2_R3_Star</t>
+  </si>
+  <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B2_R3_Star\REDO_HALO\HALO_allsections_Round3_AKT3_Star_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_allsections_Round3_AKT3_Star_Fused.tif</t>
+  </si>
+  <si>
+    <t>2720P</t>
+  </si>
+  <si>
+    <t>7, B</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R3_HA_Final_Analysis\HA_R3_2720P_Star_Final.csv</t>
+  </si>
+  <si>
+    <t>8492M</t>
+  </si>
+  <si>
+    <t>GLARE, section3, annotation2; consider switching to adapted oligo algorithms made for sections above</t>
+  </si>
+  <si>
     <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R3</t>
   </si>
   <si>
-    <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R3_HA_Final_Analysis\HA_R3_2723A_Star_Final.csv</t>
-  </si>
-  <si>
-    <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B2_R3_Star</t>
-  </si>
-  <si>
-    <t>2720P</t>
-  </si>
-  <si>
-    <t>7, B</t>
-  </si>
-  <si>
-    <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R3_HA_Final_Analysis\HA_R3_2720P_Star_Final.csv</t>
-  </si>
-  <si>
-    <t>8492M</t>
-  </si>
-  <si>
-    <t>GLARE, section3, annotation2; consider switching to adapted oligo algorithms made for sections above</t>
-  </si>
-  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R3_HA_Final_Analysis\HA_R3_8492M_Star_Final.csv</t>
   </si>
   <si>
@@ -606,6 +916,12 @@
     <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B2_R3_BO_Star</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B2_R3_BO_Star\REDO_HALO\HALO_round3_BO_AKT3_Star_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_round3_BO_AKT3_Star_Fused.tif</t>
+  </si>
+  <si>
     <t>6423A</t>
   </si>
   <si>
@@ -618,7 +934,7 @@
     <t>KDM\DECON_RIF_Batch2_Round4_AKT3\Reunmix_RIF_Batch2_Round4_AKT3\Star</t>
   </si>
   <si>
-    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R4</t>
+    <t>Decon_AKT3_Star_Cyto_Nuc_Copyintensity_FINAL_R4_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\STAR\R4_HA_Final_Analysis\HA_R4_6423A_Star_Final.csv</t>
@@ -627,6 +943,12 @@
     <t>Z:\Kelsey\Polaris\32422_RIF_DECON_B2_R4_Star</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\32422_RIF_DECON_B2_R4_Star\REDO_HALO\HALO_allsections_AKT3_Star_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_allsections_AKT3_Star_Fused.tif</t>
+  </si>
+  <si>
     <t>6423P</t>
   </si>
   <si>
@@ -660,7 +982,7 @@
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\CIRCLE\Decon_RIF_6432_Ant_B1_R1_RERUN_Circle</t>
   </si>
   <si>
-    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R1</t>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R1_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R1_HA_Circle_Final_Analysis\HA_R1_6432A_Circle_Final.csv</t>
@@ -669,6 +991,12 @@
     <t>Z:\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_CIRCLE\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_CIRCLE\Scan1\HALO\Fused_HALO_section1_Br6432_Ant_Circle</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section1_Br6432_Ant_Circle.tif</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\CIRCLE\RESCAN_Decon_RIF_2720M_B1R1_RERUN_Circle</t>
   </si>
   <si>
@@ -678,18 +1006,42 @@
     <t>Z:\Kelsey\Polaris\3422_DECON_RIF_CIRCLE_B1R1S2\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\3422_DECON_RIF_CIRCLE_B1R1S2\HALO\HALO_RESCAN_2720M_B1R1_Circle_AKT3_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_RESCAN_2720M_B1R1_Circle_AKT3_Fused.tif</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\CIRCLE\RESCAN_Decon_RIF_6432P_B1R1_RERUN_Circle</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R1_HA_Circle_Final_Analysis\HA_R1_6432P_Circle_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_CIRCLE\Scan1\HALO\Fused_HALO_section1_Br6432_Post_Circle</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section1_Br6432_Post_Circle.tif</t>
+  </si>
+  <si>
+    <t>blurry GFAP channel --&gt; not ideal astrocyte counting</t>
+  </si>
+  <si>
+    <t>Maybe</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch1_Round1_RERUN_AKT3\CIRCLE\Decon_RIF_6471_Ant_B1_R1_RERUN_Circle</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R1_HA_Circle_Final_Analysis\HA_R1_6471A_Circle_Final.csv</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_RERUN_CIRCLE\Scan1\HALO\Fused_HALO_section3_Br6471_Ant_Circle</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section3_Br6471_Ant_Circle.tif</t>
+  </si>
+  <si>
     <t>2, A</t>
   </si>
   <si>
@@ -702,10 +1054,16 @@
     <t>Z:\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_BO_Circle_L\Scan1</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\02242022_RIF_DECON_B1_R1_BO_Circle_L\Scan1\HALO\Fused_HALO_section1_Br6432_Mid_Circle</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/Fused_HALO_section1_Br6432_Mid_Circle.tif</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Circle\Decon_RIF_B1_R5_Circle_Br8325A_section1</t>
   </si>
   <si>
-    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R5</t>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R5_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R5_HA_Circle_Final_Analysis\HA_R5_8325A_Circle_Final.csv</t>
@@ -714,54 +1072,96 @@
     <t>Z:\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle_Br8325A</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle_Br8325A\HALO\HALO_B1_R5_Circle_Br8325A_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Circle_Br8325A_Fused.tif</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Circle\Decon_RIF_B1_R5_Circle_Br8325M_section2</t>
   </si>
   <si>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R5_SMC3</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R5_HA_Circle_Final_Analysis\HA_R5_8325M_Circle_Final.csv</t>
   </si>
   <si>
     <t>Z:\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle_BR8325M</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle_BR8325M\HALO\HALO_B1_R5_Circle_Br8325M_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Circle_Br8325M_Fused.tif</t>
+  </si>
+  <si>
     <t>KDM\DECON_RIF_Batch2_round5_AKT3\Circle\Decon_RIF_B1_R5_Circle_Br8667A_section3</t>
   </si>
   <si>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R5_SMC4</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R5_HA_Circle_Final_Analysis\HA_R5_8667A_Circle_Final.csv</t>
   </si>
   <si>
     <t>Z:\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle</t>
   </si>
   <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\03102022_RIF_DECON_B1_R5_Circle\HALO\HALO_B1_R5_Circle_Br8667A_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_B1_R5_Circle_Br8667A_Fused.tif</t>
+  </si>
+  <si>
     <t>4, A</t>
   </si>
   <si>
     <t>KDM\DECON_RIF_Batch1_round2_AKT3_RERUN\Reunmix_RIF_Batch1_Round2_AKT3\Circle</t>
   </si>
   <si>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R2_SMC2</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6522M_Circle_Final.csv</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B1_R2_Rerun_Circle</t>
+  </si>
+  <si>
+    <t>Use redo</t>
+  </si>
+  <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B1_R2_Rerun_Circle\REDO_HALO\HALO_allsections_round2_AKT3_Circle_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_allsections_round2_AKT3_Circle_Fused.tif</t>
+  </si>
+  <si>
+    <t>4, B</t>
+  </si>
+  <si>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R2_SMC3</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6522P_Circle_Final.csv</t>
+  </si>
+  <si>
+    <t>4, C</t>
+  </si>
+  <si>
+    <t>Pretty section, Figure worthy?</t>
+  </si>
+  <si>
+    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6471M_Circle_Final.csv</t>
+  </si>
+  <si>
+    <t>4, D</t>
+  </si>
+  <si>
     <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R2</t>
   </si>
   <si>
-    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6522M_Circle_Final.csv</t>
-  </si>
-  <si>
-    <t>4, B</t>
-  </si>
-  <si>
-    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6522P_Circle_Final.csv</t>
-  </si>
-  <si>
-    <t>4, C</t>
-  </si>
-  <si>
-    <t>Pretty section, Figure worthy?</t>
-  </si>
-  <si>
-    <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_6471M_Circle_Final.csv</t>
-  </si>
-  <si>
-    <t>4, D</t>
-  </si>
-  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R2_HA_Final_Analysis\HA_R2_8492P_Circle_Final.csv</t>
   </si>
   <si>
@@ -771,12 +1171,21 @@
     <t>KDM\DECON_RIF_Batch2_round3_AKT3\Reunmix_RIF_Batch2_Round3_AKT3\Circle</t>
   </si>
   <si>
-    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R3</t>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_FINAL_R3_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R3_HA_Final_Analysis\HA_R3_2723A_Circle_Final.csv</t>
   </si>
   <si>
+    <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B2_R3_Circle</t>
+  </si>
+  <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B2_R3_Circle\REDO_HALO\HALO_allsections_round3_AKT3_Circle_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_allsections_round3_AKT3_Circle_Fused.tif</t>
+  </si>
+  <si>
     <t>Expect low GFAP</t>
   </si>
   <si>
@@ -795,18 +1204,36 @@
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R3_HA_Final_Analysis\HA_R3_3942A_Circle_Final.csv</t>
   </si>
   <si>
+    <t>Z:\Kelsey\Polaris\031822_RIF_DECON_B2_R3_BO_Circle</t>
+  </si>
+  <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\031822_RIF_DECON_B2_R3_BO_Circle\REDO_HALO\HALO_Round3_BO_AKT3_Circle_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_Round3_BO_AKT3_Circle_Fused.tif</t>
+  </si>
+  <si>
     <t>Low CLDN5</t>
   </si>
   <si>
     <t>KDM\DECON_RIF_Batch2_round4_AKT3\Reunmix_RIF_Batch2_Round4_AKT3\Circle</t>
   </si>
   <si>
-    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_Final_R4</t>
+    <t>Decon_AKT3_Circle_Cyto_Nuc_Copyintensity_Final_R4_SMC2</t>
   </si>
   <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R4_HA_Final_Analysis\HA_R4_6423A_Circle_Final.csv</t>
   </si>
   <si>
+    <t>Z:\Kelsey\Polaris\32422_RIF_DECON_B2_R4_Circle</t>
+  </si>
+  <si>
+    <t>\\10.17.9.46\Neural_Plasticity\Kelsey\Polaris\32422_RIF_DECON_B2_R4_Circle\REDO_HALO\HALO_Allsections_round4_AKT3_Circle_Fused</t>
+  </si>
+  <si>
+    <t>raw-data/RNAscope_images/raw_images_to_share/HALO_Allsections_round4_AKT3_Circle_Fused.tif</t>
+  </si>
+  <si>
     <t>Z:\Kelsey\Deconvolution HALO Analysis\CIRCLE\R4_HA_Final_Analysis\HA_R4_6423P_Circle_Final.csv</t>
   </si>
   <si>
@@ -817,6 +1244,61 @@
   </si>
   <si>
     <t>Potential Issue sections highlighted in yellow, consider dropping these if cell type protortions are drastically affected by these sections. These sections have a large number of fold, rips, bubbles, out of focus areas, so they are not representative of the overall collection of sections. Algorithms made in HALO are done by combination (star or circle) then by round (1-5, rounds are the same as they are for snRNAseq). If there are issues with sections (too high or low of one cell type) look at Abby's RNAscope for these blocks to better understand the amount of grey matter and white matter. I made a few algoritms to combat overcalling of oligos; do to short time frame visiual checks were done quickly so if after analysis from Louise alerts to high or low of specific cell types look closer at that section an apply the other HALO algoritms made to see if they work better for more correct segmentation. When changing the algorithm to adjust for incorrect cell type calling you do not need to re-average the copy intensity of AKT3, it will remain the same as long as you do not adjust any settings for AKT3.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Allsection images contain 4 sections (listed in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>columns P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">). The order of the sections is denoted by letters A-D, read in a top to bottom fashion. Where the top section is "A", the section below is "B", below that section is "C", and the final/bottom section is "D."
+These letters can be found in </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>column B</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>. The slide number in this case does not matter.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -852,7 +1334,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -861,8 +1343,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -873,8 +1355,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
@@ -897,8 +1397,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1046,7 +1546,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1062,11 +1562,20 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1074,41 +1583,40 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1116,9 +1624,9 @@
     <xf borderId="1" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1126,11 +1634,20 @@
     <xf borderId="1" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="16" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1402,32 +1919,94 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -1453,96 +2032,214 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A8:Z8"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A12:M19"/>
+    <mergeCell ref="A11:Z11"/>
+    <mergeCell ref="A12:Z12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A18:M25"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:Z5"/>
-    <mergeCell ref="A6:Z6"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A10:M10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A3"/>
@@ -1561,1495 +2258,2223 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
     <col customWidth="1" min="2" max="2" width="12.88"/>
     <col customWidth="1" min="4" max="4" width="12.75"/>
     <col customWidth="1" min="5" max="5" width="15.0"/>
     <col customWidth="1" min="6" max="6" width="25.13"/>
-    <col customWidth="1" min="7" max="7" width="11.25"/>
-    <col customWidth="1" min="8" max="8" width="81.63"/>
-    <col customWidth="1" min="9" max="9" width="50.38"/>
-    <col customWidth="1" min="10" max="10" width="85.38"/>
-    <col customWidth="1" min="11" max="11" width="58.75"/>
-    <col customWidth="1" min="12" max="12" width="20.13"/>
+    <col customWidth="1" min="7" max="10" width="11.25"/>
+    <col customWidth="1" min="11" max="11" width="81.63"/>
+    <col customWidth="1" min="12" max="12" width="59.38"/>
+    <col customWidth="1" min="13" max="13" width="85.38"/>
+    <col customWidth="1" min="14" max="14" width="58.75"/>
+    <col customWidth="1" min="15" max="15" width="20.13"/>
+    <col customWidth="1" min="16" max="16" width="115.63"/>
+    <col customWidth="1" min="17" max="17" width="140.88"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12">
+        <v>4.28</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7">
-        <v>4.28</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="I2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="14">
         <f>AVERAGE(E2:E6)</f>
         <v>15.64</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>29</v>
+      <c r="K2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="12">
         <v>1.0</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12">
         <v>42.88</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12"/>
+      <c r="F3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="H3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="13">
         <v>1.0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="13">
         <v>13.89</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H4" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="10">
+        <v>63</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="13">
         <v>1.0</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="13">
         <v>15.33</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="H5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="E6" s="12">
         <v>1.82</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>52</v>
+      <c r="F6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="A7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13">
         <v>5.0</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13">
         <v>25.55</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="14">
         <f>average(E7:E9)</f>
         <v>18.27333333</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>58</v>
+      <c r="K7" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="10">
+        <v>87</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="13">
         <v>5.0</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="13">
         <v>10.6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="F8" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>58</v>
+      <c r="I8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="10">
+        <v>95</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="13">
         <v>5.0</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="13">
         <v>18.67</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>58</v>
+      <c r="J9" s="22"/>
+      <c r="K9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="10">
+        <v>102</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="13">
         <v>2.0</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="13">
         <v>29.22</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="F10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="27">
         <f>average(E10:E13)</f>
         <v>22.17</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>74</v>
+      <c r="K10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="10">
+        <v>112</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="13">
         <v>2.0</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13">
         <v>26.94</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>74</v>
+      <c r="F11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="10">
+        <v>117</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="13">
         <v>2.0</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13">
         <v>14.58</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>74</v>
+      <c r="F12" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="10">
+        <v>121</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="13">
         <v>2.0</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="13">
         <v>17.94</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>74</v>
+      <c r="F13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10">
+        <v>127</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="13">
         <v>3.0</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13">
         <v>8.6</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="27">
         <f>average(E14:E18)</f>
         <v>13.696</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>74</v>
+      <c r="K14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="10">
+        <v>134</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="13">
         <v>3.0</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="13">
         <v>13.79</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>74</v>
+      <c r="F15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="A16" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="12">
         <v>3.0</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12">
         <v>16.49</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>74</v>
+      <c r="F16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="A17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="12">
         <v>3.0</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="12">
         <v>13.95</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>74</v>
+      <c r="F17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="A18" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="12">
         <v>3.0</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="12">
         <v>15.65</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>74</v>
+      <c r="F18" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="10">
+        <v>152</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="13">
         <v>4.0</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="13">
         <v>15.5</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="20">
+      <c r="F19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="27">
         <f>average(E19:E22)</f>
         <v>21.36</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>74</v>
+      <c r="K19" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="10">
+        <v>161</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="13">
         <v>4.0</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="10">
+      <c r="D20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13">
         <v>21.97</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>74</v>
+      <c r="F20" s="31"/>
+      <c r="G20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C21" s="10">
+        <v>164</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="13">
         <v>4.0</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="13">
         <v>23.33</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L21" s="21" t="s">
-        <v>74</v>
+      <c r="F21" s="31"/>
+      <c r="G21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="10">
+        <v>167</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="13">
         <v>4.0</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="D22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="13">
         <v>24.64</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>74</v>
+      <c r="F22" s="31"/>
+      <c r="G22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="10">
+        <v>33</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="13">
         <v>1.0</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E23" s="10">
+      <c r="D23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="13">
         <v>9.5</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="20">
+      <c r="F23" s="31"/>
+      <c r="G23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="27">
         <f>average(E23:E27)</f>
         <v>26.88</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>127</v>
+      <c r="K23" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="10">
+        <v>44</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="13">
         <v>1.0</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="13">
         <v>71.88</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>130</v>
+      <c r="F24" s="31"/>
+      <c r="G24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10">
+        <v>53</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="13">
         <v>1.0</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="13">
         <v>22.85</v>
       </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>127</v>
+      <c r="F25" s="31"/>
+      <c r="G25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="10">
+        <v>63</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="13">
         <v>1.0</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="13">
         <v>19.2</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>127</v>
+      <c r="F26" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="10">
+        <v>70</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="13">
         <v>1.0</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="13">
         <v>10.97</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>138</v>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10">
+        <v>79</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="13">
         <v>5.0</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="13">
         <v>40.19</v>
       </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="20">
+      <c r="F28" s="31"/>
+      <c r="G28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="27">
         <f>average(E28:E30)</f>
         <v>34.71333333</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>142</v>
+      <c r="K28" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="10">
+        <v>87</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="13">
         <v>5.0</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="10">
+      <c r="D29" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="13">
         <v>28.09</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>145</v>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="10">
+        <v>95</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="13">
         <v>5.0</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="10">
+      <c r="D30" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="13">
         <v>35.86</v>
       </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>148</v>
+      <c r="F30" s="31"/>
+      <c r="G30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="10">
+        <v>102</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="13">
         <v>2.0</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="10">
+      <c r="D31" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="13">
         <v>38.56</v>
       </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="20">
+      <c r="F31" s="31"/>
+      <c r="G31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="27">
         <f>AVERAGE(E31:E34)</f>
         <v>34.7225</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="29"/>
+      <c r="K31" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="10">
+        <v>112</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="13">
         <v>2.0</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="13">
         <v>45.71</v>
       </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K32" s="25"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="10">
+        <v>117</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="13">
         <v>2.0</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="10">
+      <c r="D33" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E33" s="13">
         <v>23.9</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K33" s="25"/>
+      <c r="F33" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="18"/>
+      <c r="K33" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="10">
+        <v>121</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="13">
         <v>2.0</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D34" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="13">
         <v>30.72</v>
       </c>
-      <c r="F34" s="25"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="25"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="10">
+        <v>127</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="13">
         <v>3.0</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="D35" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="13">
         <v>15.34</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="20">
+      <c r="F35" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="27">
         <f>average(E35:E39)</f>
         <v>23.446</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="K35" s="25"/>
+      <c r="K35" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="10">
+        <v>134</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="13">
         <v>3.0</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="13">
         <v>23.01</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K36" s="25"/>
+      <c r="F36" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" s="18"/>
+      <c r="K36" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="10">
+        <v>137</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="13">
         <v>3.0</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="10">
+      <c r="D37" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="13">
         <v>29.51</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K37" s="25"/>
+      <c r="F37" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="18"/>
+      <c r="K37" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="10">
+        <v>141</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13">
         <v>3.0</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="10">
+      <c r="D38" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="13">
         <v>28.13</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" s="25"/>
+      <c r="F38" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="18"/>
+      <c r="K38" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="10">
+        <v>145</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="13">
         <v>3.0</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" s="10">
+      <c r="D39" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="13">
         <v>21.24</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K39" s="25"/>
+      <c r="F39" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="L39" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="O39" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="10">
+        <v>152</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="13">
         <v>4.0</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="13">
         <v>39.23</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="20">
+      <c r="F40" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="27">
         <f>average(E40:E43)</f>
         <v>48.1575</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K40" s="25"/>
+      <c r="K40" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="10">
+        <v>161</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="13">
         <v>4.0</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="13">
         <v>46.57</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K41" s="25"/>
+      <c r="F41" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="K41" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="10">
+        <v>164</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="13">
         <v>4.0</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="13">
         <v>49.32</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K42" s="25"/>
+      <c r="F42" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="18"/>
+      <c r="K42" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="10">
+        <v>167</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="13">
         <v>4.0</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="13">
         <v>57.51</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" s="25"/>
+      <c r="F43" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="22"/>
+      <c r="K43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
+      <c r="A44" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="39"/>
     </row>
     <row r="45">
-      <c r="A45" s="35"/>
-      <c r="I45" s="36"/>
+      <c r="A45" s="40"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46">
-      <c r="A46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="A46" s="40"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47">
-      <c r="A47" s="35"/>
-      <c r="I47" s="36"/>
+      <c r="A47" s="40"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="44"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="A44:I48"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J39"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="A44:L48"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J28:J30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>